--- a/config/variables_list_w_snowmed.xlsx
+++ b/config/variables_list_w_snowmed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mimoor/Desktop/localwork/multicenter-sepsis/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B372BDC-F93A-1E42-B9C0-C957AEDD0E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8784CB-47AA-A449-832A-935E4D7126DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="900" windowWidth="46080" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="1380" windowWidth="46080" windowHeight="23220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="255">
   <si>
     <t>concept</t>
   </si>
@@ -532,18 +532,6 @@
     <t>Blood bicarbonate level</t>
   </si>
   <si>
-    <t>1007061000000100 | 1007071000000100</t>
-  </si>
-  <si>
-    <t>Blood arterial pH | Blood venous pH</t>
-  </si>
-  <si>
-    <t>1007101000000100 | 1014541000000100</t>
-  </si>
-  <si>
-    <t>Arterial carbon dioxide | Mixed venous carbon dioxide level</t>
-  </si>
-  <si>
     <t>Blood chloride level</t>
   </si>
   <si>
@@ -788,6 +776,15 @@
   </si>
   <si>
     <t>Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood arterial pH </t>
+  </si>
+  <si>
+    <t>Hirid: arterial, MIMIC AUMC not clearly stated</t>
+  </si>
+  <si>
+    <t>Arterial carbon dioxide</t>
   </si>
 </sst>
 </file>
@@ -1642,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2025,11 +2022,14 @@
       <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>170</v>
+      <c r="H13" s="2">
+        <v>1007061000000100</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>252</v>
+      </c>
+      <c r="J13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2054,11 +2054,11 @@
       <c r="G14" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>172</v>
+      <c r="H14" s="2">
+        <v>1007101000000100</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2087,7 +2087,7 @@
         <v>1012691000000100</v>
       </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2110,13 +2110,13 @@
         <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H16" s="2">
         <v>1000761000000100</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2139,13 +2139,13 @@
         <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H17" s="2">
         <v>1031001000000100</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
         <v>1012671000000100</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2209,13 +2209,13 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H20" s="2">
         <v>1031101000000100</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2238,16 +2238,16 @@
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H21" s="2">
         <v>105011006</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2270,16 +2270,16 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H22">
         <v>88810008</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2302,13 +2302,13 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2">
         <v>1027931000000100</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2331,16 +2331,16 @@
         <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2363,13 +2363,13 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H25" s="2">
         <v>1028081000000100</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2392,13 +2392,13 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H26" s="2">
         <v>997671000000106</v>
       </c>
       <c r="I26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2421,16 +2421,16 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2453,13 +2453,13 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H28" s="2">
         <v>1026761000000100</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2482,13 +2482,13 @@
         <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
         <v>1022291000000100</v>
       </c>
       <c r="I30" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2540,13 +2540,13 @@
         <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H31" s="2">
         <v>1107511000000100</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2569,13 +2569,13 @@
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H32" s="2">
         <v>42525009</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2598,13 +2598,13 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H33" s="2">
         <v>1110441000000100</v>
       </c>
       <c r="I33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2627,13 +2627,13 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H34" s="2">
         <v>1019301000000100</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2656,13 +2656,13 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H35" s="2">
         <v>1022651000000100</v>
       </c>
       <c r="I35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2685,11 +2685,11 @@
         <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H36" s="2"/>
       <c r="J36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2715,7 +2715,7 @@
         <v>184100006</v>
       </c>
       <c r="I37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2795,13 +2795,13 @@
         <v>27</v>
       </c>
       <c r="G43" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H43" s="2">
         <v>1006521000000100</v>
       </c>
       <c r="I43" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2821,13 +2821,13 @@
         <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H44" s="2">
         <v>1012681000000100</v>
       </c>
       <c r="I44" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2853,7 +2853,7 @@
         <v>123820005</v>
       </c>
       <c r="I45" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2873,13 +2873,13 @@
         <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I46" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2899,13 +2899,13 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I47" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2925,13 +2925,13 @@
         <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H48" s="2">
         <v>1028101000000100</v>
       </c>
       <c r="I48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2951,13 +2951,13 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H49" s="2">
         <v>1006481000000100</v>
       </c>
       <c r="I49" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2977,13 +2977,13 @@
         <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I50" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -3003,13 +3003,13 @@
         <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I51" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3029,13 +3029,13 @@
         <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H52" s="2">
         <v>364202003</v>
       </c>
       <c r="I52" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -3061,7 +3061,7 @@
         <v>1106101000000100</v>
       </c>
       <c r="I53" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3087,7 +3087,7 @@
         <v>1083891000000100</v>
       </c>
       <c r="I54" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -3113,7 +3113,7 @@
         <v>1107401000000100</v>
       </c>
       <c r="I55" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -3133,13 +3133,13 @@
         <v>67</v>
       </c>
       <c r="G56" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H56" s="2">
         <v>1022511000000100</v>
       </c>
       <c r="I56" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -3162,10 +3162,10 @@
         <v>851001000000100</v>
       </c>
       <c r="I57" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J57" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
         <v>165581004</v>
       </c>
       <c r="I58" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -3214,7 +3214,7 @@
         <v>1015481000000100</v>
       </c>
       <c r="I59" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -3234,13 +3234,13 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H60" s="2">
         <v>1022471000000100</v>
       </c>
       <c r="I60" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -3266,7 +3266,7 @@
         <v>1022481000000100</v>
       </c>
       <c r="I61" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -3286,13 +3286,13 @@
         <v>67</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H62" s="2">
         <v>1022491000000100</v>
       </c>
       <c r="I62" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -3318,7 +3318,7 @@
         <v>1019421000000100</v>
       </c>
       <c r="I63" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -3344,7 +3344,7 @@
         <v>1108061000000100</v>
       </c>
       <c r="I64" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3364,13 +3364,13 @@
         <v>67</v>
       </c>
       <c r="G65" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H65" s="2">
         <v>852471000000107</v>
       </c>
       <c r="I65" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3390,13 +3390,13 @@
         <v>67</v>
       </c>
       <c r="G66" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H66" s="2">
         <v>1022451000000100</v>
       </c>
       <c r="I66" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3422,7 +3422,7 @@
         <v>993501000000105</v>
       </c>
       <c r="I67" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3468,13 +3468,13 @@
         <v>82</v>
       </c>
       <c r="G69" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H69" s="2">
         <v>27113001</v>
       </c>
       <c r="I69" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3494,13 +3494,13 @@
         <v>82</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H70" s="2">
         <v>50373000</v>
       </c>
       <c r="I70" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3631,7 +3631,7 @@
         <v>1036771000000100</v>
       </c>
       <c r="I77" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3654,7 +3654,7 @@
         <v>1052131000000100</v>
       </c>
       <c r="I78" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3677,7 +3677,7 @@
         <v>426929000</v>
       </c>
       <c r="I79" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3700,7 +3700,7 @@
         <v>859261000000108</v>
       </c>
       <c r="I80" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3723,7 +3723,7 @@
         <v>445551004</v>
       </c>
       <c r="I81" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3746,7 +3746,7 @@
         <v>419620001</v>
       </c>
       <c r="I82" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
